--- a/실무_엑셀_예제_파일/Chapter02/02-002.xlsx
+++ b/실무_엑셀_예제_파일/Chapter02/02-002.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE2922A-F0AF-4E09-ADC2-12684027EAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E229F2AB-EA07-49FE-B1EC-44545F585B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2565" windowWidth="16440" windowHeight="29040" xr2:uid="{338C390A-FF0B-4F86-BE26-3AF0A9853FEB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{338C390A-FF0B-4F86-BE26-3AF0A9853FEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>선풍기</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -78,6 +69,15 @@
   <si>
     <t>헬로상가 제품 판매현황</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선풍기</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>에어컨</t>
   </si>
 </sst>
 </file>
@@ -201,14 +201,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,9 +526,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6709CC93-295E-453B-97B3-EEF99E079728}">
   <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
@@ -536,15 +538,15 @@
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:4" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -555,8 +557,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -566,8 +568,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
@@ -575,8 +579,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
@@ -584,8 +590,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -595,8 +601,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" s="5" t="s">
         <v>3</v>
       </c>
@@ -604,8 +612,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -615,8 +623,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
@@ -624,45 +634,42 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="3">
         <f>SUMIF($B$5:$B$11,B12,$D$5:$D$11)</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="3">
         <f t="shared" ref="D13:D14" si="0">SUMIF($B$5:$B$11,B13,$D$5:$D$11)</f>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>133</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
